--- a/questions.xlsx
+++ b/questions.xlsx
@@ -43,11 +43,11 @@
     <t xml:space="preserve">1. Результаты каких процедур учитываются при разработке Норм бесплатной выдачи СИЗ и смывающих средств работникам организации?</t>
   </si>
   <si>
-    <t xml:space="preserve">А) Результаты расследования несчастных случаев.;Б) Результаты СОУТ.;В) Результаты производственного контроля.;Г) Результаты оценки профессиональных рисков(ОПР)
+    <t xml:space="preserve">А) Результаты расследования несчастных случаев.;   Б) Результаты СОУТ.;  В) Результаты производственного контроля.;Г) Результаты оценки профессиональных рисков(ОПР)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Б) Результаты СОУТ.; Г) Результаты ОПР.</t>
+    <t xml:space="preserve">Б) Результаты СОУТ.;    Г) Результаты ОПР.</t>
   </si>
   <si>
     <t xml:space="preserve">Обеспечение СИЗ и смывающими средствами осуществляется с учетом результатов специальной оценки условий труда (СОУТ) и результатов оценки профессиональных рисков (ОПР).</t>
@@ -60,7 +60,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">А) Класс(ы) защиты.; Г)Эксплуатационные уровни защиты.; Д) Особенности конструкции, комплектности.
+    <t xml:space="preserve">А) Класс(ы) защиты.; Г)Эксплуатационные уровни защиты.;     Д) Особенности конструкции, комплектности.
 </t>
   </si>
   <si>
@@ -70,11 +70,11 @@
     <t xml:space="preserve">3. Какие виды СИЗ могут быть закреплены за рабочим местом для использования в качестве дежурных СИЗ?</t>
   </si>
   <si>
-    <t xml:space="preserve">А) Жилет сигнальный.;Б) СИЗ от падения с высоты.;В) Обувь специальная.;Г) Белье специальное (футболки, фуфайки, кальсоны, панталоны).;Д) Наушники.
+    <t xml:space="preserve">А) Жилет сигнальный.; Б) СИЗ от падения с высоты.; В) Обувь специальная.; Г) Белье специальное (футболки, фуфайки, кальсоны, панталоны).; Д) Наушники.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">А) Жилет сигнальный.; Б) СИЗ от падения с высоты.; Д) Наушники.</t>
+    <t xml:space="preserve">А) Жилет сигнальный.;  Б) СИЗ от падения с высоты.;  Д) Наушники.</t>
   </si>
   <si>
     <t xml:space="preserve">Такие виды СИЗ, как жилет сигнальный, СИЗ от падения с высоты, диэлектрические перчатки и галоши/боты, системы спасения и эвакуации, компоненты системы обеспечения безопасности работ на высоте с индикаторами срабатывания, защитные очки и щитки, фильтрующие СИЗ органов дыхания с лицевой частью из изолирующих материалов, в том числе с принудительной подачей воздуха и самоспасатели с противоаэрозольными, противогазовыми и комбинированными фильтрами, изолирующие СИЗ органов дыхания, накомарник, защитная каска, наплечники, налокотники, одежда специальная (костюмы, куртки, плащи, тулупы), наушники</t>
@@ -506,7 +506,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="88.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="101" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -568,7 +568,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="266.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
